--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIPER\source\repos\piper9797\Skillwap_Test3(standard sprint)\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIPER\source\repos\piper9797\Skillwap_Test3\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1978C4-282C-43B3-836F-A275C34D5D7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB679B74-C257-4841-8E71-7D14F9663F61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   <si>
     <t>Arts</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.99.100:5000/</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -570,19 +570,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.65" x14ac:dyDescent="0.45">
@@ -599,7 +599,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -622,19 +622,19 @@
     </row>
     <row r="2" spans="1:3" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{ABA42B06-F2C9-4938-B15D-C1E56E54E02F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
@@ -664,76 +664,76 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="5">
         <v>43567</v>
@@ -742,7 +742,7 @@
         <v>43597</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="7">
         <v>0.75</v>
@@ -751,16 +751,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,132 +8,208 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIPER\source\repos\piper9797\Skillwap_Test3\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB679B74-C257-4841-8E71-7D14F9663F61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C7B63-7E3A-4D4E-B539-A7774F0C308D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignUp" sheetId="3" r:id="rId1"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId2"/>
+    <sheet name="AddNewLanguages" sheetId="4" r:id="rId3"/>
+    <sheet name="AddSkills" sheetId="5" r:id="rId4"/>
+    <sheet name="AddEduction" sheetId="6" r:id="rId5"/>
+    <sheet name="AddCertifications" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Url</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Thai boxing</t>
+  </si>
+  <si>
+    <t>Thai boxing exchanges Arts</t>
+  </si>
+  <si>
+    <t>Fun &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>Health, Nutrition &amp; Fitness</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fighting skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
+  </si>
+  <si>
+    <t>mvpstudio.qa@gmail.com</t>
+  </si>
+  <si>
+    <t>SydneyQa2018</t>
+  </si>
+  <si>
+    <t>Arts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.99.100:5000/</t>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>university</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">certification </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>From</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mandarin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Native/Bilingual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Auckalnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bachelor Degree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISTQB</t>
+  </si>
+  <si>
+    <t>Advanced Certificate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>ConfirmPswd</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Skill-Exchange</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>LocationType</t>
-  </si>
-  <si>
-    <t>Startdate</t>
-  </si>
-  <si>
-    <t>Enddate</t>
-  </si>
-  <si>
-    <t>Starttime</t>
-  </si>
-  <si>
-    <t>Endtime</t>
-  </si>
-  <si>
-    <t>SkillTrade</t>
-  </si>
-  <si>
-    <t>Selectday</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Thai boxing</t>
-  </si>
-  <si>
-    <t>Thai boxing exchanges Arts</t>
-  </si>
-  <si>
-    <t>Fun &amp; Lifestyle</t>
-  </si>
-  <si>
-    <t>Health, Nutrition &amp; Fitness</t>
-  </si>
-  <si>
-    <t>One-off service</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fighting skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill-exchange</t>
-  </si>
-  <si>
-    <t>mvpstudio.qa@gmail.com</t>
-  </si>
-  <si>
-    <t>SydneyQa2018</t>
-  </si>
-  <si>
-    <t>Arts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.99.100:5000/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -203,7 +279,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -214,6 +290,9 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -552,54 +631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" customWidth="1"/>
-    <col min="3" max="3" width="27.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
-    <col min="5" max="5" width="27.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.65" x14ac:dyDescent="0.45">
-      <c r="C2" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -614,21 +650,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -641,12 +677,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -664,76 +700,76 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="H2" s="5">
         <v>43567</v>
@@ -742,7 +778,7 @@
         <v>43597</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K2" s="7">
         <v>0.75</v>
@@ -751,16 +787,16 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -768,4 +804,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6F7693-D89F-4759-A72F-66BAF90BACCD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50A402-610D-4D53-A201-5CE37383DBC1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A0B86D-396A-4432-9C05-5B49F70BA24C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="2" width="28.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA3B70A-9C8D-4B9E-BF8E-C9CE4DF16631}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIPER\source\repos\piper9797\Skillwap_Test3\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C7B63-7E3A-4D4E-B539-A7774F0C308D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D58A6-2EA0-4043-B71A-43930925FAA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>B.A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -209,6 +205,10 @@
   </si>
   <si>
     <t>Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.65" x14ac:dyDescent="0.45">
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6F7693-D89F-4759-A72F-66BAF90BACCD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -879,7 +879,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -909,16 +909,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="8">
         <v>2019</v>
@@ -934,13 +934,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA3B70A-9C8D-4B9E-BF8E-C9CE4DF16631}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.46484375" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="24.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -956,10 +957,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>2020</v>
